--- a/web/static/documents/fichier_exemple_ma_cantine_no_diag.xlsx
+++ b/web/static/documents/fichier_exemple_ma_cantine_no_diag.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t xml:space="preserve">SIRET</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Repas par jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repas par an</t>
   </si>
   <si>
     <t xml:space="preserve">Secteurs</t>
@@ -186,13 +189,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.33"/>
@@ -200,22 +203,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="36.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="24.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="36.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="32.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -252,7 +255,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -263,13 +268,14 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>69123</v>
@@ -278,13 +284,13 @@
         <v>69001</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
+      <c r="G2" s="0" t="n">
+        <v>14000</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>15</v>
@@ -297,14 +303,17 @@
       </c>
       <c r="K2" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>69123</v>
@@ -313,13 +322,13 @@
         <v>69001</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>790</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
+      <c r="G3" s="0" t="n">
+        <v>15000</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>15</v>
@@ -332,6 +341,9 @@
       </c>
       <c r="K3" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/web/static/documents/fichier_exemple_ma_cantine_no_diag.xlsx
+++ b/web/static/documents/fichier_exemple_ma_cantine_no_diag.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="fichier_exemple_ma_cantine" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="fichier_exemple_ma_cantine" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,40 +22,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
-    <t xml:space="preserve">SIRET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de la cantine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code postal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRET cuisine centrale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repas par jour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repas par an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secteurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode de production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode de gestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secteur économique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestionnaires addtionnels</t>
+    <t xml:space="preserve">siret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_insee_commune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_postal_commune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siret_livreur_repas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre_repas_jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre_repas_an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_gestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modèle_économique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestionnaires_additionnels</t>
   </si>
   <si>
     <t xml:space="preserve">000 000 000 00000</t>
@@ -163,12 +163,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,165 +188,271 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="36.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="36.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="32.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="24.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>69123</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>69001</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>69123</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>69001</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>790</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
